--- a/assets/disciplinas/LOT2006.xlsx
+++ b/assets/disciplinas/LOT2006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Desenvolver o aprendizado teórico e prático da Bioquímica através da execução de práticas de laboratório baseadas na evolução do conteúdo teórico ministrado na disciplina Bioquímica II.</t>
+    <t>6007846 - Júlio César dos Santos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6007846 - Júlio César dos Santos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Propriedades gerais de glicídios; Fermentação anaeróbia; Extração deClorofila e Reação de Hill; Transporte de glicídios e indução de enzimas.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Propriedades gerais de glicídios:principais testes qualitativos para identificação e diferenciação de glicídios; aplicação de certas reações coloridas e dosagem espectrofotométrica de monossacarídeos redutores.Fermentação anaeróbia: Conceitos gerais e fermentação de glicose; produção de etanol e CO2; consumo da fonte de carbono;cálculo da eficiência do processo; ação de um inibidor da glicólise. Extração de clorofila e reação deHill: estrutura de cloroplastos; papel da clorofila nos sistemas fotossintéticos I e II; fase escura e fase luminosa; produção de NADP; produção de ATP; papel do corante como aceptor de prótons e elétrons. Transporte de glicídios e indução de enzimas: conceitos gerais; enzimas do catabolismo da galactose; repressão, inativação emodificação catabólicas; sistemas enzimáticos constitutivos e induzidos em células de levedura</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de uma prova escrita e notas de relatórios (R).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1*2 + R)/3.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) será calculada pela fórmula: MR = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>CISTERNAS, J. R. Fundamentos de bioquímica experimental. São Paulo : Atheneu, 2005. ISBN: 9788573791075.NELSON, D. L., COX. M. M. Princípios de bioquímica de Lehninger. Porto Alegre : Artmed, 2011. ISBN: 9788536324180.VOET, D., VOET, J. G. Bioquímica. Porto Alegre : Artmed, 2013. ISBN: 9788582710043.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -493,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,34 +609,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -659,77 +653,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2006.xlsx
+++ b/assets/disciplinas/LOT2006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Desenvolver o aprendizado teórico e prático da Bioquímica através da execução de práticas de laboratório baseadas na evolução do conteúdo teórico ministrado na disciplina Bioquímica II.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6007846 - Júlio César dos Santos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Propriedades gerais de glicídios; Fermentação anaeróbia; Extração deClorofila e Reação de Hill; Transporte de glicídios e indução de enzimas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Propriedades gerais de glicídios:principais testes qualitativos para identificação e diferenciação de glicídios; aplicação de certas reações coloridas e dosagem espectrofotométrica de monossacarídeos redutores.Fermentação anaeróbia: Conceitos gerais e fermentação de glicose; produção de etanol e CO2; consumo da fonte de carbono;cálculo da eficiência do processo; ação de um inibidor da glicólise. Extração de clorofila e reação deHill: estrutura de cloroplastos; papel da clorofila nos sistemas fotossintéticos I e II; fase escura e fase luminosa; produção de NADP; produção de ATP; papel do corante como aceptor de prótons e elétrons. Transporte de glicídios e indução de enzimas: conceitos gerais; enzimas do catabolismo da galactose; repressão, inativação emodificação catabólicas; sistemas enzimáticos constitutivos e induzidos em células de levedura</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de uma prova escrita e notas de relatórios (R).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de uma prova escrita e notas de relatórios (R).</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1*2 + R)/3.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1*2 + R)/3.</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) será calculada pela fórmula: MR = (NF + PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) será calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>CISTERNAS, J. R. Fundamentos de bioquímica experimental. São Paulo : Atheneu, 2005. ISBN: 9788573791075.NELSON, D. L., COX. M. M. Princípios de bioquímica de Lehninger. Porto Alegre : Artmed, 2011. ISBN: 9788536324180.VOET, D., VOET, J. G. Bioquímica. Porto Alegre : Artmed, 2013. ISBN: 9788582710043.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -609,37 +618,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -653,66 +659,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
